--- a/Dados/Checklist QA Fic.xlsx
+++ b/Dados/Checklist QA Fic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98a8b86867ab7286/Área de Trabalho/Dev/Data-Science/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="11_AD4D361C20488DEA4E38A0A4841D54E45ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C97F5607-DBD5-4392-A62D-C309DBB1CF7B}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="11_AD4D361C20488DEA4E38A0A4841D54E45ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC0E145E-0B7F-4082-A372-0ED0F0AA34AA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -306,9 +306,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0099D511-1F8A-4E87-A5BE-04AE7CE96E8E}" name="Tabela2" displayName="Tabela2" ref="A1:R24" totalsRowShown="0">
-  <autoFilter ref="A1:R24" xr:uid="{0099D511-1F8A-4E87-A5BE-04AE7CE96E8E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0099D511-1F8A-4E87-A5BE-04AE7CE96E8E}" name="Tabela2" displayName="Tabela2" ref="A1:R30" totalsRowShown="0">
+  <autoFilter ref="A1:R30" xr:uid="{0099D511-1F8A-4E87-A5BE-04AE7CE96E8E}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{2FD42EB7-38E0-4529-BBDC-D5E74453F16E}" name="ID"/>
     <tableColumn id="2" xr3:uid="{41A9E1C7-BFB4-49B0-8A55-EB409F3F846B}" name="Nome"/>
@@ -596,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,6 +1012,54 @@
         <v>19</v>
       </c>
     </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Dados/Checklist QA Fic.xlsx
+++ b/Dados/Checklist QA Fic.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98a8b86867ab7286/Área de Trabalho/Dev/Data-Science/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_AD4D361C20488DEA4E38A0A4841D54E45ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC0E145E-0B7F-4082-A372-0ED0F0AA34AA}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="11_AD4D361C20488DEA4E38A0A4841D54E45ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65594A57-195D-456A-9EC1-F23DAD18F0D3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="37020" yWindow="2535" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Demandas" sheetId="1" r:id="rId1"/>
+    <sheet name="Categorias" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -244,13 +245,52 @@
   </si>
   <si>
     <t>SCI</t>
+  </si>
+  <si>
+    <t>Exec.Projeto</t>
+  </si>
+  <si>
+    <t>Norte da Muralha</t>
+  </si>
+  <si>
+    <t>Jon Snow</t>
+  </si>
+  <si>
+    <t>Grande Plano de Roose Bolton</t>
+  </si>
+  <si>
+    <t>Roose Bolton</t>
+  </si>
+  <si>
+    <t>Saque de Lannisporto</t>
+  </si>
+  <si>
+    <t>Invasão a Meereen</t>
+  </si>
+  <si>
+    <t>Tyrion como Conselheiro</t>
+  </si>
+  <si>
+    <t>Fuga de Daenerys</t>
+  </si>
+  <si>
+    <t>Graça Verde</t>
+  </si>
+  <si>
+    <t>Tyrion Lannister</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>Balon Greyjoy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +298,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +320,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -281,13 +335,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -311,8 +378,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0099D511-1F8A-4E87-A5BE-04AE7CE96E8E}" name="Tabela2" displayName="Tabela2" ref="A1:R30" totalsRowShown="0">
-  <autoFilter ref="A1:R30" xr:uid="{0099D511-1F8A-4E87-A5BE-04AE7CE96E8E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0099D511-1F8A-4E87-A5BE-04AE7CE96E8E}" name="Tabela2" displayName="Tabela2" ref="A1:R20" totalsRowShown="0">
+  <autoFilter ref="A1:R20" xr:uid="{0099D511-1F8A-4E87-A5BE-04AE7CE96E8E}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{2FD42EB7-38E0-4529-BBDC-D5E74453F16E}" name="ID"/>
     <tableColumn id="2" xr3:uid="{41A9E1C7-BFB4-49B0-8A55-EB409F3F846B}" name="Nome"/>
@@ -600,15 +667,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="23.33203125" customWidth="1"/>
@@ -682,382 +749,360 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D2" s="2" t="s">
-        <v>46</v>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43831</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43860</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43845</v>
+      </c>
+      <c r="J2" s="1">
+        <v>43860</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="1">
+        <v>43814</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45444</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45504</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45444</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1">
+        <v>41760</v>
+      </c>
+      <c r="I4" s="1">
+        <v>41760</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="1">
+        <v>41760</v>
+      </c>
+      <c r="P4" s="1">
+        <v>41760</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D3" s="2" t="s">
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="1">
+        <v>39788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43525</v>
+      </c>
+      <c r="H6" s="1">
+        <v>43570</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43525</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="1">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1">
+        <v>43202</v>
+      </c>
+      <c r="I8" s="1">
+        <v>43202</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D4" s="2" t="s">
+      <c r="N8" s="1">
+        <v>43202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D6" s="2" t="s">
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1">
+        <v>29802</v>
+      </c>
+      <c r="I10" s="1">
+        <v>29802</v>
+      </c>
+      <c r="N10" s="1">
+        <v>29802</v>
+      </c>
+      <c r="P10" s="1">
+        <v>29802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="1">
+        <v>27269</v>
+      </c>
+      <c r="P11" s="1">
+        <v>38081</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1">
+        <v>37653</v>
+      </c>
+      <c r="I12" s="1">
+        <v>37653</v>
+      </c>
+      <c r="N12" s="1">
+        <v>37653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E8" s="2" t="s">
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
+      <c r="G13" s="1">
+        <v>38081</v>
+      </c>
+      <c r="I13" s="1">
+        <v>38081</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="P13" s="1">
+        <v>38477</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1">
-        <v>43831</v>
-      </c>
-      <c r="H18" s="1">
-        <v>43860</v>
-      </c>
-      <c r="I18" s="1">
-        <v>43845</v>
-      </c>
-      <c r="J18" s="1">
-        <v>43860</v>
-      </c>
-      <c r="K18" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="1">
-        <v>43814</v>
-      </c>
-      <c r="M18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="1">
-        <v>45444</v>
-      </c>
-      <c r="H19" s="1">
-        <v>45504</v>
-      </c>
-      <c r="K19" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" t="s">
-        <v>60</v>
-      </c>
-      <c r="M20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" t="s">
-        <v>64</v>
-      </c>
-      <c r="M21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="1">
-        <v>43525</v>
-      </c>
-      <c r="H22" s="1">
-        <v>43570</v>
-      </c>
-      <c r="K22" t="s">
-        <v>71</v>
-      </c>
-      <c r="M22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="K23" t="s">
-        <v>72</v>
-      </c>
-      <c r="M23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" t="s">
-        <v>54</v>
-      </c>
-      <c r="M24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="1">
+        <v>40172</v>
+      </c>
+      <c r="P14" s="1">
+        <v>38477</v>
       </c>
     </row>
   </sheetData>
@@ -1066,4 +1111,343 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A59FA0-F6F5-4566-95E8-44744F379D94}">
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Dados/Checklist QA Fic.xlsx
+++ b/Dados/Checklist QA Fic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98a8b86867ab7286/Área de Trabalho/Dev/Data-Science/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="11_AD4D361C20488DEA4E38A0A4841D54E45ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65594A57-195D-456A-9EC1-F23DAD18F0D3}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="11_AD4D361C20488DEA4E38A0A4841D54E45ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA06EE5B-0774-45E4-B24E-057A154E0A1D}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="37020" yWindow="2535" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demandas" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -284,6 +284,42 @@
   </si>
   <si>
     <t>Balon Greyjoy</t>
+  </si>
+  <si>
+    <t>Abismo de Helm</t>
+  </si>
+  <si>
+    <t>Acampamento Meio-Sangue</t>
+  </si>
+  <si>
+    <t>Monte Olimpo</t>
+  </si>
+  <si>
+    <t>Submundo</t>
+  </si>
+  <si>
+    <t>Arda - Middle Earth</t>
+  </si>
+  <si>
+    <t>Minas Tirith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theoden </t>
+  </si>
+  <si>
+    <t>Percy Jackson</t>
+  </si>
+  <si>
+    <t>Zeus</t>
+  </si>
+  <si>
+    <t>Hades</t>
+  </si>
+  <si>
+    <t>Eru Illuvatar</t>
+  </si>
+  <si>
+    <t>Gandalf the White</t>
   </si>
 </sst>
 </file>
@@ -667,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,6 +1141,99 @@
         <v>38477</v>
       </c>
     </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="1">
+        <v>29802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" s="1">
+        <v>27269</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="1">
+        <v>36068</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Dados/Checklist QA Fic.xlsx
+++ b/Dados/Checklist QA Fic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98a8b86867ab7286/Área de Trabalho/Dev/Data-Science/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="11_AD4D361C20488DEA4E38A0A4841D54E45ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA06EE5B-0774-45E4-B24E-057A154E0A1D}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="11_AD4D361C20488DEA4E38A0A4841D54E45ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B973B069-E9A1-456D-915B-055276BF9BDE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Muito Pequeno</t>
   </si>
   <si>
-    <t>Projetos de TI</t>
-  </si>
-  <si>
     <t>Invasão de King's Landing</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>SCI</t>
   </si>
   <si>
-    <t>Exec.Projeto</t>
-  </si>
-  <si>
     <t>Norte da Muralha</t>
   </si>
   <si>
@@ -320,6 +314,84 @@
   </si>
   <si>
     <t>Gandalf the White</t>
+  </si>
+  <si>
+    <t>Subcategoria</t>
+  </si>
+  <si>
+    <t>PTI</t>
+  </si>
+  <si>
+    <t>Status deveria ser execução</t>
+  </si>
+  <si>
+    <t>Projeto atrasado</t>
+  </si>
+  <si>
+    <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Correto</t>
+  </si>
+  <si>
+    <t>Deveria ter data planejada de início</t>
+  </si>
+  <si>
+    <t>O Heroi Perdido</t>
+  </si>
+  <si>
+    <t>O Filho de Netuno</t>
+  </si>
+  <si>
+    <t>A Marca de Atena</t>
+  </si>
+  <si>
+    <t>A Casa de Hades</t>
+  </si>
+  <si>
+    <t>O Sangue do Olimpo</t>
+  </si>
+  <si>
+    <t>O Ladrão de Raios</t>
+  </si>
+  <si>
+    <t>O Mar de Monstros</t>
+  </si>
+  <si>
+    <t>A Maldição do Titã</t>
+  </si>
+  <si>
+    <t>A Batalha do Labirinto</t>
+  </si>
+  <si>
+    <t>O Último Olimpiano</t>
+  </si>
+  <si>
+    <t>Guerra dos Tronos</t>
+  </si>
+  <si>
+    <t>Fúria dos Reis</t>
+  </si>
+  <si>
+    <t>Leo Valdez</t>
+  </si>
+  <si>
+    <t>Annabeth Chase</t>
+  </si>
+  <si>
+    <t>Nico di Angelo</t>
+  </si>
+  <si>
+    <t>Jason Grace</t>
+  </si>
+  <si>
+    <t>Grover</t>
+  </si>
+  <si>
+    <t>Eddard Stark</t>
+  </si>
+  <si>
+    <t>Stannis Baratheon</t>
   </si>
 </sst>
 </file>
@@ -343,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +432,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -386,12 +470,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,12 +500,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0099D511-1F8A-4E87-A5BE-04AE7CE96E8E}" name="Tabela2" displayName="Tabela2" ref="A1:R20" totalsRowShown="0">
-  <autoFilter ref="A1:R20" xr:uid="{0099D511-1F8A-4E87-A5BE-04AE7CE96E8E}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0099D511-1F8A-4E87-A5BE-04AE7CE96E8E}" name="Tabela2" displayName="Tabela2" ref="A1:T32" totalsRowShown="0">
+  <autoFilter ref="A1:T32" xr:uid="{0099D511-1F8A-4E87-A5BE-04AE7CE96E8E}"/>
+  <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{2FD42EB7-38E0-4529-BBDC-D5E74453F16E}" name="ID"/>
     <tableColumn id="2" xr3:uid="{41A9E1C7-BFB4-49B0-8A55-EB409F3F846B}" name="Nome"/>
     <tableColumn id="3" xr3:uid="{1A020DD2-729A-492B-9027-289BD790EA07}" name="Responsável"/>
+    <tableColumn id="20" xr3:uid="{378A2682-FD76-4E7F-B6EC-D0172B1F8808}" name="Resultado Esperado"/>
     <tableColumn id="4" xr3:uid="{AE799331-9004-4396-B480-57DE30EB967A}" name="Grupo"/>
     <tableColumn id="5" xr3:uid="{3DCDA57D-A9D1-44A5-BCCB-8ABCECD7B75C}" name="Nome ponto de decisão"/>
     <tableColumn id="6" xr3:uid="{254D72FC-B334-40C5-8E00-F581D43EEBA2}" name="Status ponto de decisão"/>
@@ -435,6 +522,7 @@
     <tableColumn id="16" xr3:uid="{9E5AD159-B765-4133-989A-B7FACBDEB3F0}" name="Dt.real in.pto.dec"/>
     <tableColumn id="17" xr3:uid="{958B396C-4E76-4DA8-BA80-90FA5FF70C27}" name="Dt.real térm.pt.dec"/>
     <tableColumn id="18" xr3:uid="{4634B3FC-7D88-4032-8281-15E1D2FA1B11}" name="Status do orçamento"/>
+    <tableColumn id="19" xr3:uid="{EFAE2C12-7EA6-44E2-9377-F3C55CE8942F}" name="Subcategoria"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -703,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,14 +809,16 @@
     <col min="10" max="10" width="20.5546875" customWidth="1"/>
     <col min="11" max="11" width="14.88671875" customWidth="1"/>
     <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.6640625" customWidth="1"/>
     <col min="15" max="15" width="20.109375" customWidth="1"/>
     <col min="16" max="16" width="17.88671875" customWidth="1"/>
     <col min="17" max="17" width="19.33203125" customWidth="1"/>
     <col min="18" max="18" width="20.5546875" customWidth="1"/>
+    <col min="19" max="19" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,499 +829,892 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>43831</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>43860</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>43845</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>43860</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="1">
+        <v>43814</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="1">
-        <v>43814</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45444</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45504</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45444</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45047</v>
+      </c>
+      <c r="J4" s="1">
+        <v>45047</v>
+      </c>
+      <c r="L4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="1">
+        <v>45047</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>44901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1">
-        <v>43845</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H6" s="1">
+        <v>43525</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43570</v>
+      </c>
+      <c r="J6" s="1">
+        <v>43525</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="1">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45444</v>
-      </c>
-      <c r="H3" s="1">
-        <v>45504</v>
-      </c>
-      <c r="I3" s="1">
-        <v>45444</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="1">
-        <v>45444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="1">
-        <v>41760</v>
-      </c>
-      <c r="I4" s="1">
-        <v>41760</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="1">
-        <v>41760</v>
-      </c>
-      <c r="P4" s="1">
-        <v>41760</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="1">
-        <v>39788</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="Q7" s="1">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1">
-        <v>43525</v>
-      </c>
-      <c r="H6" s="1">
-        <v>43570</v>
-      </c>
-      <c r="I6" s="1">
-        <v>43525</v>
-      </c>
-      <c r="K6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="1">
-        <v>43525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="1">
-        <v>43419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1">
         <v>43202</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>43202</v>
       </c>
-      <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>43202</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44412</v>
+      </c>
+      <c r="J10" s="1">
+        <v>44412</v>
+      </c>
+      <c r="O10" s="1">
+        <v>44412</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="1">
+        <v>44436</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>44655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1">
+        <v>44958</v>
+      </c>
+      <c r="J12" s="1">
+        <v>44958</v>
+      </c>
+      <c r="O12" s="1">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>75</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45020</v>
+      </c>
+      <c r="J13" s="1">
+        <v>45020</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="Q13" s="1">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="1">
+        <v>43824</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="Q17" s="1">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="1">
-        <v>29802</v>
-      </c>
-      <c r="I10" s="1">
-        <v>29802</v>
-      </c>
-      <c r="N10" s="1">
-        <v>29802</v>
-      </c>
-      <c r="P10" s="1">
-        <v>29802</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="1">
+        <v>45302</v>
+      </c>
+      <c r="J21" s="1">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="1">
+        <v>45335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="1">
+        <v>45320</v>
+      </c>
+      <c r="J23" s="1">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="1">
+        <v>45321</v>
+      </c>
+      <c r="J24" s="1">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="1">
+        <v>45311</v>
+      </c>
+      <c r="J25" s="1">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="1">
+        <v>45306</v>
+      </c>
+      <c r="J26" s="1">
+        <v>45301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="N11" s="1">
-        <v>27269</v>
-      </c>
-      <c r="P11" s="1">
-        <v>38081</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1">
-        <v>37653</v>
-      </c>
-      <c r="I12" s="1">
-        <v>37653</v>
-      </c>
-      <c r="N12" s="1">
-        <v>37653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="1">
-        <v>38081</v>
-      </c>
-      <c r="I13" s="1">
-        <v>38081</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="P13" s="1">
-        <v>38477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="1">
-        <v>40172</v>
-      </c>
-      <c r="P14" s="1">
-        <v>38477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="1">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="P15" s="1">
-        <v>29802</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" t="s">
         <v>27</v>
       </c>
-      <c r="P16" s="1">
-        <v>27269</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="1">
+        <v>45305</v>
+      </c>
+      <c r="J28" s="1">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="1">
+        <v>45336</v>
+      </c>
+      <c r="J29" s="1">
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="1">
-        <v>36068</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="1">
+        <v>45306</v>
+      </c>
+      <c r="J32" s="1">
+        <v>45336</v>
       </c>
     </row>
   </sheetData>
@@ -1251,6 +1734,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">

--- a/Dados/Checklist QA Fic.xlsx
+++ b/Dados/Checklist QA Fic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98a8b86867ab7286/Área de Trabalho/Dev/Data-Science/Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="333" documentId="11_AD4D361C20488DEA4E38A0A4841D54E45ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B973B069-E9A1-456D-915B-055276BF9BDE}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="11_AD4D361C20488DEA4E38A0A4841D54E45ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE206887-BC6B-4A4E-87E5-AA40FD70E7D1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -329,9 +329,6 @@
   </si>
   <si>
     <t>Resultado Esperado</t>
-  </si>
-  <si>
-    <t>Correto</t>
   </si>
   <si>
     <t>Deveria ter data planejada de início</t>
@@ -793,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,7 +800,7 @@
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="18.21875" customWidth="1"/>
     <col min="10" max="10" width="20.5546875" customWidth="1"/>
@@ -979,7 +976,7 @@
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1">
         <v>45047</v>
@@ -1428,10 +1425,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
         <v>98</v>
@@ -1454,7 +1451,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
         <v>91</v>
@@ -1477,10 +1474,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
         <v>98</v>
@@ -1503,10 +1500,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
         <v>98</v>
@@ -1529,13 +1526,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -1555,13 +1552,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
         <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
@@ -1581,10 +1578,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
         <v>99</v>
@@ -1604,10 +1601,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
         <v>98</v>
@@ -1630,13 +1627,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
         <v>28</v>
@@ -1656,13 +1653,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
         <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
         <v>27</v>
@@ -1676,13 +1673,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
         <v>28</v>
@@ -1696,10 +1693,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
         <v>98</v>
